--- a/static/other_templates/Template_CSV_LibraryInput.xlsx
+++ b/static/other_templates/Template_CSV_LibraryInput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vsh785\Documents\Advance\static\other_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB85494-B950-462D-9B72-9E9BB605CA19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5F31AC-9D9E-4690-9E4F-19E8F0D98F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A90A8333-440F-4DBE-9CFE-0DC96BAA08DF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
   <si>
     <t>Sample Number</t>
   </si>
@@ -351,16 +351,310 @@
   </si>
   <si>
     <t>DNA conc</t>
+  </si>
+  <si>
+    <t>AAA01</t>
+  </si>
+  <si>
+    <t>AAA02</t>
+  </si>
+  <si>
+    <t>AAA03</t>
+  </si>
+  <si>
+    <t>AAA04</t>
+  </si>
+  <si>
+    <t>AAA05</t>
+  </si>
+  <si>
+    <t>AAA06</t>
+  </si>
+  <si>
+    <t>AAA07</t>
+  </si>
+  <si>
+    <t>AAA08</t>
+  </si>
+  <si>
+    <t>AAA09</t>
+  </si>
+  <si>
+    <t>AAA10</t>
+  </si>
+  <si>
+    <t>AAA11</t>
+  </si>
+  <si>
+    <t>AAA12</t>
+  </si>
+  <si>
+    <t>AAA13</t>
+  </si>
+  <si>
+    <t>AAA14</t>
+  </si>
+  <si>
+    <t>AAA15</t>
+  </si>
+  <si>
+    <t>AAA16</t>
+  </si>
+  <si>
+    <t>AAA17</t>
+  </si>
+  <si>
+    <t>AAA18</t>
+  </si>
+  <si>
+    <t>AAA19</t>
+  </si>
+  <si>
+    <t>AAA20</t>
+  </si>
+  <si>
+    <t>AAA21</t>
+  </si>
+  <si>
+    <t>AAA22</t>
+  </si>
+  <si>
+    <t>AAA23</t>
+  </si>
+  <si>
+    <t>AAA24</t>
+  </si>
+  <si>
+    <t>AAA25</t>
+  </si>
+  <si>
+    <t>AAA26</t>
+  </si>
+  <si>
+    <t>AAA27</t>
+  </si>
+  <si>
+    <t>AAA28</t>
+  </si>
+  <si>
+    <t>AAA29</t>
+  </si>
+  <si>
+    <t>AAA30</t>
+  </si>
+  <si>
+    <t>AAA31</t>
+  </si>
+  <si>
+    <t>AAA32</t>
+  </si>
+  <si>
+    <t>AAA33</t>
+  </si>
+  <si>
+    <t>AAA34</t>
+  </si>
+  <si>
+    <t>AAA35</t>
+  </si>
+  <si>
+    <t>AAA36</t>
+  </si>
+  <si>
+    <t>AAA37</t>
+  </si>
+  <si>
+    <t>AAA38</t>
+  </si>
+  <si>
+    <t>AAA39</t>
+  </si>
+  <si>
+    <t>AAA40</t>
+  </si>
+  <si>
+    <t>AAA41</t>
+  </si>
+  <si>
+    <t>AAA42</t>
+  </si>
+  <si>
+    <t>AAA43</t>
+  </si>
+  <si>
+    <t>AAA44</t>
+  </si>
+  <si>
+    <t>AAA45</t>
+  </si>
+  <si>
+    <t>AAA46</t>
+  </si>
+  <si>
+    <t>AAA47</t>
+  </si>
+  <si>
+    <t>AAA48</t>
+  </si>
+  <si>
+    <t>AAA49</t>
+  </si>
+  <si>
+    <t>AAA50</t>
+  </si>
+  <si>
+    <t>AAA51</t>
+  </si>
+  <si>
+    <t>AAA52</t>
+  </si>
+  <si>
+    <t>AAA53</t>
+  </si>
+  <si>
+    <t>AAA54</t>
+  </si>
+  <si>
+    <t>AAA55</t>
+  </si>
+  <si>
+    <t>AAA56</t>
+  </si>
+  <si>
+    <t>AAA57</t>
+  </si>
+  <si>
+    <t>AAA58</t>
+  </si>
+  <si>
+    <t>AAA59</t>
+  </si>
+  <si>
+    <t>AAA60</t>
+  </si>
+  <si>
+    <t>AAA61</t>
+  </si>
+  <si>
+    <t>AAA62</t>
+  </si>
+  <si>
+    <t>AAA63</t>
+  </si>
+  <si>
+    <t>AAA64</t>
+  </si>
+  <si>
+    <t>AAA65</t>
+  </si>
+  <si>
+    <t>AAA66</t>
+  </si>
+  <si>
+    <t>AAA67</t>
+  </si>
+  <si>
+    <t>AAA68</t>
+  </si>
+  <si>
+    <t>AAA69</t>
+  </si>
+  <si>
+    <t>AAA70</t>
+  </si>
+  <si>
+    <t>AAA71</t>
+  </si>
+  <si>
+    <t>AAA72</t>
+  </si>
+  <si>
+    <t>AAA73</t>
+  </si>
+  <si>
+    <t>AAA74</t>
+  </si>
+  <si>
+    <t>AAA75</t>
+  </si>
+  <si>
+    <t>AAA76</t>
+  </si>
+  <si>
+    <t>AAA77</t>
+  </si>
+  <si>
+    <t>AAA78</t>
+  </si>
+  <si>
+    <t>AAA79</t>
+  </si>
+  <si>
+    <t>AAA80</t>
+  </si>
+  <si>
+    <t>AAA81</t>
+  </si>
+  <si>
+    <t>AAA82</t>
+  </si>
+  <si>
+    <t>AAA83</t>
+  </si>
+  <si>
+    <t>AAA84</t>
+  </si>
+  <si>
+    <t>AAA85</t>
+  </si>
+  <si>
+    <t>AAA86</t>
+  </si>
+  <si>
+    <t>AAA87</t>
+  </si>
+  <si>
+    <t>AAA88</t>
+  </si>
+  <si>
+    <t>AAA89</t>
+  </si>
+  <si>
+    <t>AAA90</t>
+  </si>
+  <si>
+    <t>AAA91</t>
+  </si>
+  <si>
+    <t>AAA92</t>
+  </si>
+  <si>
+    <t>AAA93</t>
+  </si>
+  <si>
+    <t>AAA94</t>
+  </si>
+  <si>
+    <t>AAA95</t>
+  </si>
+  <si>
+    <t>AAA96</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -705,7 +999,7 @@
   <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -713,7 +1007,7 @@
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -753,6 +1047,9 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
+      <c r="D2" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
@@ -761,6 +1058,9 @@
       <c r="B3" t="s">
         <v>14</v>
       </c>
+      <c r="D3" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
@@ -769,6 +1069,9 @@
       <c r="B4" t="s">
         <v>15</v>
       </c>
+      <c r="D4" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
@@ -777,6 +1080,9 @@
       <c r="B5" t="s">
         <v>16</v>
       </c>
+      <c r="D5" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
@@ -785,6 +1091,9 @@
       <c r="B6" t="s">
         <v>17</v>
       </c>
+      <c r="D6" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
@@ -793,6 +1102,9 @@
       <c r="B7" t="s">
         <v>18</v>
       </c>
+      <c r="D7" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
@@ -801,6 +1113,9 @@
       <c r="B8" t="s">
         <v>19</v>
       </c>
+      <c r="D8" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
@@ -809,6 +1124,9 @@
       <c r="B9" t="s">
         <v>20</v>
       </c>
+      <c r="D9" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
@@ -817,6 +1135,9 @@
       <c r="B10" t="s">
         <v>3</v>
       </c>
+      <c r="D10" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
@@ -825,6 +1146,9 @@
       <c r="B11" t="s">
         <v>21</v>
       </c>
+      <c r="D11" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
@@ -833,6 +1157,9 @@
       <c r="B12" t="s">
         <v>22</v>
       </c>
+      <c r="D12" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
@@ -841,6 +1168,9 @@
       <c r="B13" t="s">
         <v>23</v>
       </c>
+      <c r="D13" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
@@ -849,6 +1179,9 @@
       <c r="B14" t="s">
         <v>24</v>
       </c>
+      <c r="D14" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
@@ -857,6 +1190,9 @@
       <c r="B15" t="s">
         <v>25</v>
       </c>
+      <c r="D15" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
@@ -865,608 +1201,903 @@
       <c r="B16" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D19" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D23" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D26" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D27" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D29" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D30" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D31" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D32" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D33" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D34" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D35" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D36" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D37" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D38" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D39" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D40" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D41" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D42" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D43" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D44" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D45" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D46" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D47" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D48" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D49" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D50" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D51" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D52" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D53" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D54" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D55" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D56" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D57" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D58" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D59" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D60" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D61" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D62" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D63" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D64" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D65" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D66" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D67" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D68" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D69" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D70" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D71" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D72" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D73" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D74" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D75" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D76" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D77" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D78" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D79" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D80" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D81" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>81</v>
+      </c>
       <c r="B82" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D82" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>82</v>
+      </c>
       <c r="B83" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D83" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>83</v>
+      </c>
       <c r="B84" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D84" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>84</v>
+      </c>
       <c r="B85" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D85" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>85</v>
+      </c>
       <c r="B86" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D86" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>86</v>
+      </c>
       <c r="B87" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D87" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>87</v>
+      </c>
       <c r="B88" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D88" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>88</v>
+      </c>
       <c r="B89" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D89" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>89</v>
+      </c>
       <c r="B90" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D90" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>90</v>
+      </c>
       <c r="B91" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D91" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>91</v>
+      </c>
       <c r="B92" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D92" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>92</v>
+      </c>
       <c r="B93" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D93" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>93</v>
+      </c>
       <c r="B94" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D94" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>94</v>
+      </c>
       <c r="B95" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D95" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>95</v>
+      </c>
       <c r="B96" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="D96" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>96</v>
+      </c>
       <c r="B97" t="s">
         <v>97</v>
       </c>
+      <c r="D97" t="s">
+        <v>200</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/static/other_templates/Template_CSV_LibraryInput.xlsx
+++ b/static/other_templates/Template_CSV_LibraryInput.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vsh785\Documents\Advance\static\other_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5F31AC-9D9E-4690-9E4F-19E8F0D98F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740053A6-3C2F-4C85-8859-AF2C96F7043E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A90A8333-440F-4DBE-9CFE-0DC96BAA08DF}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" xr2:uid="{A90A8333-440F-4DBE-9CFE-0DC96BAA08DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>Sample Number</t>
   </si>
@@ -335,9 +335,6 @@
     <t>EX Barcode</t>
   </si>
   <si>
-    <t>Sample</t>
-  </si>
-  <si>
     <t>DNA ul</t>
   </si>
   <si>
@@ -353,292 +350,7 @@
     <t>DNA conc</t>
   </si>
   <si>
-    <t>AAA01</t>
-  </si>
-  <si>
-    <t>AAA02</t>
-  </si>
-  <si>
-    <t>AAA03</t>
-  </si>
-  <si>
-    <t>AAA04</t>
-  </si>
-  <si>
-    <t>AAA05</t>
-  </si>
-  <si>
-    <t>AAA06</t>
-  </si>
-  <si>
-    <t>AAA07</t>
-  </si>
-  <si>
-    <t>AAA08</t>
-  </si>
-  <si>
-    <t>AAA09</t>
-  </si>
-  <si>
-    <t>AAA10</t>
-  </si>
-  <si>
-    <t>AAA11</t>
-  </si>
-  <si>
-    <t>AAA12</t>
-  </si>
-  <si>
-    <t>AAA13</t>
-  </si>
-  <si>
-    <t>AAA14</t>
-  </si>
-  <si>
-    <t>AAA15</t>
-  </si>
-  <si>
-    <t>AAA16</t>
-  </si>
-  <si>
-    <t>AAA17</t>
-  </si>
-  <si>
-    <t>AAA18</t>
-  </si>
-  <si>
-    <t>AAA19</t>
-  </si>
-  <si>
-    <t>AAA20</t>
-  </si>
-  <si>
-    <t>AAA21</t>
-  </si>
-  <si>
-    <t>AAA22</t>
-  </si>
-  <si>
-    <t>AAA23</t>
-  </si>
-  <si>
-    <t>AAA24</t>
-  </si>
-  <si>
-    <t>AAA25</t>
-  </si>
-  <si>
-    <t>AAA26</t>
-  </si>
-  <si>
-    <t>AAA27</t>
-  </si>
-  <si>
-    <t>AAA28</t>
-  </si>
-  <si>
-    <t>AAA29</t>
-  </si>
-  <si>
-    <t>AAA30</t>
-  </si>
-  <si>
-    <t>AAA31</t>
-  </si>
-  <si>
-    <t>AAA32</t>
-  </si>
-  <si>
-    <t>AAA33</t>
-  </si>
-  <si>
-    <t>AAA34</t>
-  </si>
-  <si>
-    <t>AAA35</t>
-  </si>
-  <si>
-    <t>AAA36</t>
-  </si>
-  <si>
-    <t>AAA37</t>
-  </si>
-  <si>
-    <t>AAA38</t>
-  </si>
-  <si>
-    <t>AAA39</t>
-  </si>
-  <si>
-    <t>AAA40</t>
-  </si>
-  <si>
-    <t>AAA41</t>
-  </si>
-  <si>
-    <t>AAA42</t>
-  </si>
-  <si>
-    <t>AAA43</t>
-  </si>
-  <si>
-    <t>AAA44</t>
-  </si>
-  <si>
-    <t>AAA45</t>
-  </si>
-  <si>
-    <t>AAA46</t>
-  </si>
-  <si>
-    <t>AAA47</t>
-  </si>
-  <si>
-    <t>AAA48</t>
-  </si>
-  <si>
-    <t>AAA49</t>
-  </si>
-  <si>
-    <t>AAA50</t>
-  </si>
-  <si>
-    <t>AAA51</t>
-  </si>
-  <si>
-    <t>AAA52</t>
-  </si>
-  <si>
-    <t>AAA53</t>
-  </si>
-  <si>
-    <t>AAA54</t>
-  </si>
-  <si>
-    <t>AAA55</t>
-  </si>
-  <si>
-    <t>AAA56</t>
-  </si>
-  <si>
-    <t>AAA57</t>
-  </si>
-  <si>
-    <t>AAA58</t>
-  </si>
-  <si>
-    <t>AAA59</t>
-  </si>
-  <si>
-    <t>AAA60</t>
-  </si>
-  <si>
-    <t>AAA61</t>
-  </si>
-  <si>
-    <t>AAA62</t>
-  </si>
-  <si>
-    <t>AAA63</t>
-  </si>
-  <si>
-    <t>AAA64</t>
-  </si>
-  <si>
-    <t>AAA65</t>
-  </si>
-  <si>
-    <t>AAA66</t>
-  </si>
-  <si>
-    <t>AAA67</t>
-  </si>
-  <si>
-    <t>AAA68</t>
-  </si>
-  <si>
-    <t>AAA69</t>
-  </si>
-  <si>
-    <t>AAA70</t>
-  </si>
-  <si>
-    <t>AAA71</t>
-  </si>
-  <si>
-    <t>AAA72</t>
-  </si>
-  <si>
-    <t>AAA73</t>
-  </si>
-  <si>
-    <t>AAA74</t>
-  </si>
-  <si>
-    <t>AAA75</t>
-  </si>
-  <si>
-    <t>AAA76</t>
-  </si>
-  <si>
-    <t>AAA77</t>
-  </si>
-  <si>
-    <t>AAA78</t>
-  </si>
-  <si>
-    <t>AAA79</t>
-  </si>
-  <si>
-    <t>AAA80</t>
-  </si>
-  <si>
-    <t>AAA81</t>
-  </si>
-  <si>
-    <t>AAA82</t>
-  </si>
-  <si>
-    <t>AAA83</t>
-  </si>
-  <si>
-    <t>AAA84</t>
-  </si>
-  <si>
-    <t>AAA85</t>
-  </si>
-  <si>
-    <t>AAA86</t>
-  </si>
-  <si>
-    <t>AAA87</t>
-  </si>
-  <si>
-    <t>AAA88</t>
-  </si>
-  <si>
-    <t>AAA89</t>
-  </si>
-  <si>
-    <t>AAA90</t>
-  </si>
-  <si>
-    <t>AAA91</t>
-  </si>
-  <si>
-    <t>AAA92</t>
-  </si>
-  <si>
-    <t>AAA93</t>
-  </si>
-  <si>
-    <t>AAA94</t>
-  </si>
-  <si>
-    <t>AAA95</t>
-  </si>
-  <si>
-    <t>AAA96</t>
+    <t>Sample ID</t>
   </si>
 </sst>
 </file>
@@ -999,7 +711,7 @@
   <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C96" sqref="C96"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1022,22 +734,22 @@
         <v>98</v>
       </c>
       <c r="D1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" t="s">
         <v>99</v>
       </c>
-      <c r="E1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>100</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>101</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>102</v>
-      </c>
-      <c r="I1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -1047,9 +759,6 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>105</v>
-      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
@@ -1058,9 +767,6 @@
       <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
-        <v>106</v>
-      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
@@ -1069,9 +775,6 @@
       <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
-        <v>107</v>
-      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
@@ -1080,9 +783,6 @@
       <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
-        <v>108</v>
-      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
@@ -1091,9 +791,6 @@
       <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
@@ -1102,9 +799,6 @@
       <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
-        <v>110</v>
-      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
@@ -1113,9 +807,6 @@
       <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" t="s">
-        <v>111</v>
-      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
@@ -1124,9 +815,6 @@
       <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="D9" t="s">
-        <v>112</v>
-      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
@@ -1135,9 +823,6 @@
       <c r="B10" t="s">
         <v>3</v>
       </c>
-      <c r="D10" t="s">
-        <v>113</v>
-      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
@@ -1146,9 +831,6 @@
       <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="D11" t="s">
-        <v>114</v>
-      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
@@ -1157,9 +839,6 @@
       <c r="B12" t="s">
         <v>22</v>
       </c>
-      <c r="D12" t="s">
-        <v>115</v>
-      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
@@ -1168,9 +847,6 @@
       <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
-        <v>116</v>
-      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
@@ -1179,9 +855,6 @@
       <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D14" t="s">
-        <v>117</v>
-      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
@@ -1190,9 +863,6 @@
       <c r="B15" t="s">
         <v>25</v>
       </c>
-      <c r="D15" t="s">
-        <v>118</v>
-      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
@@ -1201,899 +871,653 @@
       <c r="B16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>27</v>
       </c>
-      <c r="D17" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
       </c>
-      <c r="D18" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>28</v>
       </c>
-      <c r="D19" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
       </c>
-      <c r="D20" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>30</v>
       </c>
-      <c r="D21" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>31</v>
       </c>
-      <c r="D22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>32</v>
       </c>
-      <c r="D23" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>33</v>
       </c>
-      <c r="D24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>34</v>
       </c>
-      <c r="D25" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
       </c>
-      <c r="D26" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>35</v>
       </c>
-      <c r="D27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>36</v>
       </c>
-      <c r="D28" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>37</v>
       </c>
-      <c r="D29" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>38</v>
       </c>
-      <c r="D30" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>39</v>
       </c>
-      <c r="D31" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>40</v>
       </c>
-      <c r="D32" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>41</v>
       </c>
-      <c r="D33" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
       </c>
-      <c r="D34" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>42</v>
       </c>
-      <c r="D35" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>43</v>
       </c>
-      <c r="D36" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>44</v>
       </c>
-      <c r="D37" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>45</v>
       </c>
-      <c r="D38" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>46</v>
       </c>
-      <c r="D39" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>47</v>
       </c>
-      <c r="D40" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>48</v>
       </c>
-      <c r="D41" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
       </c>
-      <c r="D42" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>49</v>
       </c>
-      <c r="D43" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>50</v>
       </c>
-      <c r="D44" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>51</v>
       </c>
-      <c r="D45" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>52</v>
       </c>
-      <c r="D46" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>53</v>
       </c>
-      <c r="D47" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>54</v>
       </c>
-      <c r="D48" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>55</v>
       </c>
-      <c r="D49" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>8</v>
       </c>
-      <c r="D50" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>56</v>
       </c>
-      <c r="D51" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>57</v>
       </c>
-      <c r="D52" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>58</v>
       </c>
-      <c r="D53" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>59</v>
       </c>
-      <c r="D54" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>60</v>
       </c>
-      <c r="D55" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>61</v>
       </c>
-      <c r="D56" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>62</v>
       </c>
-      <c r="D57" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>9</v>
       </c>
-      <c r="D58" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>63</v>
       </c>
-      <c r="D59" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>64</v>
       </c>
-      <c r="D60" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>65</v>
       </c>
-      <c r="D61" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>66</v>
       </c>
-      <c r="D62" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>67</v>
       </c>
-      <c r="D63" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>68</v>
       </c>
-      <c r="D64" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>69</v>
       </c>
-      <c r="D65" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>10</v>
       </c>
-      <c r="D66" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>70</v>
       </c>
-      <c r="D67" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>71</v>
       </c>
-      <c r="D68" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>72</v>
       </c>
-      <c r="D69" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>73</v>
       </c>
-      <c r="D70" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>74</v>
       </c>
-      <c r="D71" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>75</v>
       </c>
-      <c r="D72" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>76</v>
       </c>
-      <c r="D73" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>11</v>
       </c>
-      <c r="D74" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>77</v>
       </c>
-      <c r="D75" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>78</v>
       </c>
-      <c r="D76" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>79</v>
       </c>
-      <c r="D77" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>80</v>
       </c>
-      <c r="D78" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>81</v>
       </c>
-      <c r="D79" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>82</v>
       </c>
-      <c r="D80" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>83</v>
       </c>
-      <c r="D81" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
         <v>12</v>
       </c>
-      <c r="D82" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
         <v>84</v>
       </c>
-      <c r="D83" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
         <v>85</v>
       </c>
-      <c r="D84" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
         <v>86</v>
       </c>
-      <c r="D85" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
         <v>87</v>
       </c>
-      <c r="D86" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>88</v>
       </c>
-      <c r="D87" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
         <v>89</v>
       </c>
-      <c r="D88" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
         <v>90</v>
       </c>
-      <c r="D89" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
         <v>13</v>
       </c>
-      <c r="D90" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>91</v>
       </c>
-      <c r="D91" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>92</v>
       </c>
-      <c r="D92" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>93</v>
       </c>
-      <c r="D93" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
         <v>94</v>
       </c>
-      <c r="D94" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
         <v>95</v>
       </c>
-      <c r="D95" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>96</v>
       </c>
-      <c r="D96" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
         <v>97</v>
-      </c>
-      <c r="D97" t="s">
-        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/static/other_templates/Template_CSV_LibraryInput.xlsx
+++ b/static/other_templates/Template_CSV_LibraryInput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vsh785\Documents\Advance\static\other_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740053A6-3C2F-4C85-8859-AF2C96F7043E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F869FB28-9469-4849-B57D-26DD381FAA21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" xr2:uid="{A90A8333-440F-4DBE-9CFE-0DC96BAA08DF}"/>
   </bookViews>

--- a/static/other_templates/Template_CSV_LibraryInput.xlsx
+++ b/static/other_templates/Template_CSV_LibraryInput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vsh785\Documents\Advance\static\other_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F869FB28-9469-4849-B57D-26DD381FAA21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C511D8B-379F-4D52-B2AC-4137C7537AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" xr2:uid="{A90A8333-440F-4DBE-9CFE-0DC96BAA08DF}"/>
   </bookViews>
@@ -350,7 +350,7 @@
     <t>DNA conc</t>
   </si>
   <si>
-    <t>Sample ID</t>
+    <t>SampleID</t>
   </si>
 </sst>
 </file>

--- a/static/other_templates/Template_CSV_LibraryInput.xlsx
+++ b/static/other_templates/Template_CSV_LibraryInput.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vsh785\Documents\Advance\static\other_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C511D8B-379F-4D52-B2AC-4137C7537AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590319BA-1C1E-410C-8F1D-4231CAF1EC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" xr2:uid="{A90A8333-440F-4DBE-9CFE-0DC96BAA08DF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A90A8333-440F-4DBE-9CFE-0DC96BAA08DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>Sample Number</t>
   </si>
@@ -351,6 +351,9 @@
   </si>
   <si>
     <t>SampleID</t>
+  </si>
+  <si>
+    <t>Random Position</t>
   </si>
 </sst>
 </file>
@@ -708,22 +711,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AA4C66-BAD4-4E07-BFB5-E785A9B033C4}">
-  <dimension ref="A1:I97"/>
+  <dimension ref="A1:J97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -731,28 +735,31 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" t="s">
         <v>98</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>104</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>103</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>99</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>100</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>101</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -760,7 +767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -768,7 +775,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -776,7 +783,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -784,7 +791,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -792,7 +799,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -800,7 +807,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -808,7 +815,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -816,7 +823,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -824,7 +831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -832,7 +839,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -840,7 +847,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -848,7 +855,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -856,7 +863,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -864,7 +871,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
